--- a/biology/Botanique/Malus_transitoria/Malus_transitoria.xlsx
+++ b/biology/Botanique/Malus_transitoria/Malus_transitoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malus transitoria est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un pommier sauvage, originaire d'Asie (Chine).
 Le latin transitoria signifie « vie courte ».
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malus transitoria est un arbre hermaphrodite à feuilles caduques. Il peut mesurer de 7 à 8 mètres de haut.
 Les feuilles découpées virent au jaune en automne.
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut être utilisée comme un arbre d'ornement pour ses fleurs voyantes au printemps et ses fruits restant longtemps sur l'arbre en hiver. En Chine, il est parfois utilisé comme porte-greffe du pommier.
 </t>
@@ -576,14 +592,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (13 mai 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (13 mai 2017) :
 variété Malus transitoria var. centralasiatica
 variété Malus transitoria var. glabrescens
-Selon The Plant List            (13 mai 2017)[1] :
+Selon The Plant List            (13 mai 2017) :
 variété Malus transitoria var. centralasiatica (Vassilcz.) T.T.Yu
-Selon Tropicos                                           (13 mai 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 mai 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Malus transitoria var. centralasiatica (Vassilcz.) T.T. Yu
 variété Malus transitoria var. glabrescens T.T. Yu &amp; T.C. Ku
 variété Malus transitoria var. toringoides Rehder
